--- a/biology/Botanique/Vignoble_de_Vaux/Vignoble_de_Vaux.xlsx
+++ b/biology/Botanique/Vignoble_de_Vaux/Vignoble_de_Vaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Vignoble de Vaux (3 km au sud d'Auxerre), d'une petite cinquantaine d'hectares, a été réimplanté dans les années 1970. 
 </t>
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vignoble domine la vallée de l'Yonne. On y distingue des sols de Kimméridgien en coteaux, et des sols de type Portlandien sur les plateaux. Les coteaux sont exposés sud-sud-est et produisent du Bourgogne-côte-d'Auxerre. 
 </t>
@@ -542,7 +556,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terroir donne des vins rouges en pinot noir et des vins blancs en chardonnay.
 Aujourd'hui, ce sont cinq viticulteurs qui se partagent ce vignoble : 
